--- a/prototypes/sankey-example-test-data.xlsx
+++ b/prototypes/sankey-example-test-data.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/holger/Documents/Git/spotfire-sankey-diagram/prototypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AFCC92-8FF3-C240-B17B-093B55601D06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18CC5FC-AB52-6545-9CA2-F97661442D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{C999AA33-BC3D-2641-A2E0-E0AC1123BAB0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{C999AA33-BC3D-2641-A2E0-E0AC1123BAB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Horizontal" sheetId="1" r:id="rId1"/>
-    <sheet name="Vertical" sheetId="3" r:id="rId2"/>
-    <sheet name="Pivot" sheetId="2" r:id="rId3"/>
+    <sheet name="Manual Sankey Calculation" sheetId="4" r:id="rId2"/>
+    <sheet name="Vertical" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
   <si>
     <t>Subject</t>
   </si>
@@ -66,6 +67,96 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>A = 6</t>
+  </si>
+  <si>
+    <t>B = 4</t>
+  </si>
+  <si>
+    <t>Null = 1</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Nodes Before</t>
+  </si>
+  <si>
+    <t>Nodes Today</t>
+  </si>
+  <si>
+    <t>Nodes After</t>
+  </si>
+  <si>
+    <t>A = 3</t>
+  </si>
+  <si>
+    <t>C = 2</t>
+  </si>
+  <si>
+    <t>Null = 2</t>
+  </si>
+  <si>
+    <t>A &gt; A = 2</t>
+  </si>
+  <si>
+    <t>A &gt; B = 2</t>
+  </si>
+  <si>
+    <t>B &gt; A = 1</t>
+  </si>
+  <si>
+    <t>B &gt; B = 1</t>
+  </si>
+  <si>
+    <t>A &gt; Null = 2</t>
+  </si>
+  <si>
+    <t>Null &gt; B = 1</t>
+  </si>
+  <si>
+    <t>B &gt; C = 2</t>
+  </si>
+  <si>
+    <t>A = 5</t>
+  </si>
+  <si>
+    <t>B = 1</t>
+  </si>
+  <si>
+    <t>C = 4</t>
+  </si>
+  <si>
+    <t>A &gt; A = 3</t>
+  </si>
+  <si>
+    <t>C &gt; A = 1</t>
+  </si>
+  <si>
+    <t>C &gt; C = 1</t>
+  </si>
+  <si>
+    <t>Null &gt; C = 1</t>
+  </si>
+  <si>
+    <t>Null &gt; Null = 1</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Links2</t>
+  </si>
+  <si>
+    <t>LinkColumns</t>
+  </si>
+  <si>
+    <t>NodeColumns</t>
   </si>
 </sst>
 </file>
@@ -315,18 +406,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8F18873-0428-1848-890B-8ACDFCFB4FE0}" name="Tabelle1" displayName="Tabelle1" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12" xr:uid="{E0DFA507-314F-B848-891F-6A82E9E8BC45}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8F18873-0428-1848-890B-8ACDFCFB4FE0}" name="Tabelle1" displayName="Tabelle1" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{E0DFA507-314F-B848-891F-6A82E9E8BC45}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FD270A0-9E92-6142-AC5B-839AC7ECB51A}" name="Subject"/>
+    <tableColumn id="5" xr3:uid="{99D1953C-A887-D443-9E9C-26E662304459}" name="Amount"/>
     <tableColumn id="2" xr3:uid="{B5741F4C-BE3C-894E-9B8E-A34922D88505}" name="Before"/>
-    <tableColumn id="3" xr3:uid="{D427B50A-2AB3-1D4B-8932-292E30F59E34}" name="After"/>
+    <tableColumn id="3" xr3:uid="{D427B50A-2AB3-1D4B-8932-292E30F59E34}" name="Today"/>
+    <tableColumn id="4" xr3:uid="{6367A53B-A00C-554E-9A08-3CBFF4A34AC5}" name="After"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7A616D14-AFF4-4D42-A665-314D8E616DEC}" name="Tabelle4" displayName="Tabelle4" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{434A3CB9-5BA7-7848-8E1A-1F87E596CC92}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E26971CD-6725-0442-A92A-27A0C5FF0C10}" name="Nodes Before"/>
+    <tableColumn id="2" xr3:uid="{F1519E99-1FB3-1E45-B9E8-9FC1FFE5CD73}" name="Links"/>
+    <tableColumn id="3" xr3:uid="{E0C481AE-4502-3F4F-B952-880FF10716DF}" name="Nodes Today"/>
+    <tableColumn id="4" xr3:uid="{A37B24D3-9FBB-9644-A18F-7FD93F3D8376}" name="Links2"/>
+    <tableColumn id="5" xr3:uid="{31CBF2CE-3B19-3346-9B92-7D6B3CECE10F}" name="Nodes After"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{94E53650-8F49-1C44-84EF-04711E97EB1D}" name="Tabelle3" displayName="Tabelle3" ref="A15:B16" totalsRowShown="0">
+  <autoFilter ref="A15:B16" xr:uid="{E605D5D2-78D3-8A4F-9903-842BC4C971F2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CC96D7A4-6272-AF47-B676-08751DDDE84C}" name="NodeColumns"/>
+    <tableColumn id="2" xr3:uid="{D36C5599-AA24-D643-9F5E-4504450F5EB9}" name="LinkColumns"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E4961FA-BC7B-164F-8787-5C0DEF0C4E68}" name="Tabelle13" displayName="Tabelle13" ref="A1:C23" totalsRowShown="0">
   <autoFilter ref="A1:C23" xr:uid="{7B9BD088-3283-454B-AE3B-E5A42B566AC3}"/>
   <tableColumns count="3">
@@ -635,147 +753,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D465898-E016-9346-98AD-9F2EAAD9246A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
+      <c r="B7">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
+      <c r="B8">
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>108</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +977,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8683CB6-4307-154A-9912-2245B1B58A29}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6B0158-3D8D-7A4B-B477-C672352813A1}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1057,11 +1397,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C058DC36-01A9-4542-B5F6-7CE8DF0CF18E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
